--- a/data/epp-16-dnssec-data.xlsx
+++ b/data/epp-16-dnssec-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gavin.brown/Code/rst-test-specs/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0A303D-FE66-3949-873A-0F44C139C425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DE8966-AC22-EB40-BE17-952DA1AC0514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{CD472396-4CFB-9A45-AA99-46F4E9CB8B91}"/>
   </bookViews>
@@ -62,52 +62,6 @@
     <t>Error code if expected result is not produced</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Notes for authors:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-* The name of the file (minus ".xlsx") is used as the ID of the data provider in the spec.
-* Any text in the box above is treated as Markdown and incorporated into the specs as the description for this data provider.
-* Do not change anything except the contents of the table below and the box above.
-* All cells </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>MUST</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> have the "Text" type.
-* Empty cells do not indicate an empty string (the "{EMPTY}" value indicates that), but will be replaced with the value in the previous row when this file is converted into YAML.
-* This means that all cells in the first row MUST be populated.</t>
-    </r>
-  </si>
-  <si>
     <t>EPP_UNEXPECTED_COMMAND_FAILURE</t>
   </si>
   <si>
@@ -243,12 +197,22 @@
   <si>
     <t>EPP_DOMAIN_UPDATE_SERVER_ACCEPTS_INVALID_DNSSEC_DATA</t>
   </si>
+  <si>
+    <t>Notes for authors:
+* The name of the file (minus ".xlsx") is used as the ID of the data provider in the spec.
+* Any text in the box above is treated as Markdown and incorporated into the specs as the description for this data provider.
+* Do not change anything except the contents of the table below and the box above.
+* All cells MUST have the "Text" type.
+* Empty cells do not indicate an empty string (the "{EMPTY}" value indicates that), but will be replaced with the value in the previous row when this file is converted into YAML.
+* This means that all cells in the first row MUST be populated.
+* IP addresses must be taken from the prefixes 208.77.190.192/26 and 2602:800:900e:1257::/64 and should not be reused.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -273,13 +237,6 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -336,6 +293,9 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -354,9 +314,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -364,16 +321,11 @@
   <dxfs count="13">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
         <color theme="1"/>
         <name val="Arial"/>
         <family val="2"/>
@@ -399,11 +351,16 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Arial"/>
         <family val="2"/>
@@ -636,17 +593,17 @@
     <filterColumn colId="10" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{F151C1C9-FD61-3745-B6D9-436567D9F6F2}" name="action" dataDxfId="0"/>
-    <tableColumn id="20" xr3:uid="{84610D9D-62D8-C747-BEB0-DA340D34D421}" name="keyTag" dataDxfId="10"/>
-    <tableColumn id="19" xr3:uid="{54D27880-56AD-DC42-BE78-EBB1A19D2339}" name="dsDataAlg" dataDxfId="9"/>
-    <tableColumn id="18" xr3:uid="{4C2A616C-31AB-9948-877D-701A0692DECD}" name="digestType" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{2467371F-CDC1-0443-9301-00252404EE8B}" name="digest" dataDxfId="7"/>
-    <tableColumn id="24" xr3:uid="{66E3B520-5E7B-914A-A7E7-5D2A0EC1B025}" name="flags" dataDxfId="6"/>
-    <tableColumn id="23" xr3:uid="{85CBAD45-FEDA-EF41-B68C-A469EEC82B26}" name="protocol" dataDxfId="5"/>
-    <tableColumn id="22" xr3:uid="{7BF4016C-657D-B647-BB2B-87573194BAB3}" name="keyDataAlg" dataDxfId="4"/>
-    <tableColumn id="21" xr3:uid="{D26FFFA2-9A10-9943-A61D-4B69D6D32E34}" name="pubKey" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{00D82E93-146D-6544-AF62-0DE540BD8AA2}" name="passOrFail" dataDxfId="2"/>
-    <tableColumn id="16" xr3:uid="{8BB18A73-00AF-4640-8340-D626F25C4C5F}" name="errorCode" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{F151C1C9-FD61-3745-B6D9-436567D9F6F2}" name="action" dataDxfId="10"/>
+    <tableColumn id="20" xr3:uid="{84610D9D-62D8-C747-BEB0-DA340D34D421}" name="keyTag" dataDxfId="9"/>
+    <tableColumn id="19" xr3:uid="{54D27880-56AD-DC42-BE78-EBB1A19D2339}" name="dsDataAlg" dataDxfId="8"/>
+    <tableColumn id="18" xr3:uid="{4C2A616C-31AB-9948-877D-701A0692DECD}" name="digestType" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{2467371F-CDC1-0443-9301-00252404EE8B}" name="digest" dataDxfId="6"/>
+    <tableColumn id="24" xr3:uid="{66E3B520-5E7B-914A-A7E7-5D2A0EC1B025}" name="flags" dataDxfId="5"/>
+    <tableColumn id="23" xr3:uid="{85CBAD45-FEDA-EF41-B68C-A469EEC82B26}" name="protocol" dataDxfId="4"/>
+    <tableColumn id="22" xr3:uid="{7BF4016C-657D-B647-BB2B-87573194BAB3}" name="keyDataAlg" dataDxfId="3"/>
+    <tableColumn id="21" xr3:uid="{D26FFFA2-9A10-9943-A61D-4B69D6D32E34}" name="pubKey" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{00D82E93-146D-6544-AF62-0DE540BD8AA2}" name="passOrFail" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{8BB18A73-00AF-4640-8340-D626F25C4C5F}" name="errorCode" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -971,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D4FAA1-1060-DC4E-8B86-313DD9301EC2}">
   <dimension ref="B2:AF39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F5" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -997,175 +954,175 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:32" ht="25" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
+      <c r="B2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
     </row>
     <row r="3" spans="2:32" ht="114" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="10"/>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="10"/>
+      <c r="B3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="11"/>
     </row>
     <row r="4" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-    </row>
-    <row r="5" spans="2:32" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+    </row>
+    <row r="5" spans="2:32" ht="128" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
     </row>
     <row r="6" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
     </row>
     <row r="7" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>5</v>
@@ -1175,30 +1132,30 @@
       </c>
     </row>
     <row r="8" spans="2:32" s="3" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="B8" s="11"/>
+      <c r="B8" s="5"/>
       <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>4</v>
@@ -1212,25 +1169,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>3</v>
@@ -1244,512 +1201,512 @@
     </row>
     <row r="10" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="K10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="F36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G36" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="I36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J36" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="F37" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="F38" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L38" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J39" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="K39" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1760,7 +1717,7 @@
     <mergeCell ref="B6:Y6"/>
     <mergeCell ref="B3:AF3"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/data/epp-16-dnssec-data.xlsx
+++ b/data/epp-16-dnssec-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gavin.brown/Code/rst-test-specs/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DE8966-AC22-EB40-BE17-952DA1AC0514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF68D67-B67E-814A-B1A5-8CCD6D1ACCDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{CD472396-4CFB-9A45-AA99-46F4E9CB8B91}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="55">
   <si>
     <t>errorCode</t>
   </si>
@@ -206,6 +206,18 @@
 * Empty cells do not indicate an empty string (the "{EMPTY}" value indicates that), but will be replaced with the value in the previous row when this file is converted into YAML.
 * This means that all cells in the first row MUST be populated.
 * IP addresses must be taken from the prefixes 208.77.190.192/26 and 2602:800:900e:1257::/64 and should not be reused.</t>
+  </si>
+  <si>
+    <t>secDNSInterface</t>
+  </si>
+  <si>
+    <t>Data interface (see RFC 5910, row will be skipped if the value does not match the epp.secDNSInterfaces input parameter)</t>
+  </si>
+  <si>
+    <t>dsData</t>
+  </si>
+  <si>
+    <t>keyData</t>
   </si>
 </sst>
 </file>
@@ -318,7 +330,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -578,8 +610,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E85A8946-EC69-EC4F-9D2F-ABC371B76D30}" name="DataProvider" displayName="DataProvider" ref="B7:L39" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="B7:L39" xr:uid="{E85A8946-EC69-EC4F-9D2F-ABC371B76D30}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E85A8946-EC69-EC4F-9D2F-ABC371B76D30}" name="DataProvider" displayName="DataProvider" ref="B7:M39" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="B7:M39" xr:uid="{E85A8946-EC69-EC4F-9D2F-ABC371B76D30}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -591,19 +623,21 @@
     <filterColumn colId="8" hiddenButton="1"/>
     <filterColumn colId="9" hiddenButton="1"/>
     <filterColumn colId="10" hiddenButton="1"/>
+    <filterColumn colId="11" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{F151C1C9-FD61-3745-B6D9-436567D9F6F2}" name="action" dataDxfId="10"/>
-    <tableColumn id="20" xr3:uid="{84610D9D-62D8-C747-BEB0-DA340D34D421}" name="keyTag" dataDxfId="9"/>
-    <tableColumn id="19" xr3:uid="{54D27880-56AD-DC42-BE78-EBB1A19D2339}" name="dsDataAlg" dataDxfId="8"/>
-    <tableColumn id="18" xr3:uid="{4C2A616C-31AB-9948-877D-701A0692DECD}" name="digestType" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{2467371F-CDC1-0443-9301-00252404EE8B}" name="digest" dataDxfId="6"/>
-    <tableColumn id="24" xr3:uid="{66E3B520-5E7B-914A-A7E7-5D2A0EC1B025}" name="flags" dataDxfId="5"/>
-    <tableColumn id="23" xr3:uid="{85CBAD45-FEDA-EF41-B68C-A469EEC82B26}" name="protocol" dataDxfId="4"/>
-    <tableColumn id="22" xr3:uid="{7BF4016C-657D-B647-BB2B-87573194BAB3}" name="keyDataAlg" dataDxfId="3"/>
-    <tableColumn id="21" xr3:uid="{D26FFFA2-9A10-9943-A61D-4B69D6D32E34}" name="pubKey" dataDxfId="2"/>
-    <tableColumn id="15" xr3:uid="{00D82E93-146D-6544-AF62-0DE540BD8AA2}" name="passOrFail" dataDxfId="1"/>
-    <tableColumn id="16" xr3:uid="{8BB18A73-00AF-4640-8340-D626F25C4C5F}" name="errorCode" dataDxfId="0"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{F151C1C9-FD61-3745-B6D9-436567D9F6F2}" name="action" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{3D82AD55-769F-CD49-A19C-4CEE1C417D0E}" name="secDNSInterface" dataDxfId="0"/>
+    <tableColumn id="20" xr3:uid="{84610D9D-62D8-C747-BEB0-DA340D34D421}" name="keyTag" dataDxfId="10"/>
+    <tableColumn id="19" xr3:uid="{54D27880-56AD-DC42-BE78-EBB1A19D2339}" name="dsDataAlg" dataDxfId="9"/>
+    <tableColumn id="18" xr3:uid="{4C2A616C-31AB-9948-877D-701A0692DECD}" name="digestType" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{2467371F-CDC1-0443-9301-00252404EE8B}" name="digest" dataDxfId="7"/>
+    <tableColumn id="24" xr3:uid="{66E3B520-5E7B-914A-A7E7-5D2A0EC1B025}" name="flags" dataDxfId="6"/>
+    <tableColumn id="23" xr3:uid="{85CBAD45-FEDA-EF41-B68C-A469EEC82B26}" name="protocol" dataDxfId="5"/>
+    <tableColumn id="22" xr3:uid="{7BF4016C-657D-B647-BB2B-87573194BAB3}" name="keyDataAlg" dataDxfId="4"/>
+    <tableColumn id="21" xr3:uid="{D26FFFA2-9A10-9943-A61D-4B69D6D32E34}" name="pubKey" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{00D82E93-146D-6544-AF62-0DE540BD8AA2}" name="passOrFail" dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{8BB18A73-00AF-4640-8340-D626F25C4C5F}" name="errorCode" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -926,34 +960,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D4FAA1-1060-DC4E-8B86-313DD9301EC2}">
-  <dimension ref="B2:AF39"/>
+  <dimension ref="B2:AG39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:Y5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="105.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="70.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="22" width="16" style="1" customWidth="1"/>
-    <col min="23" max="23" width="95" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="88.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="20.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="105.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="70.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="23" width="16" style="1" customWidth="1"/>
+    <col min="24" max="24" width="95" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="88.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:32" ht="25" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:33" ht="25" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
         <v>40</v>
       </c>
@@ -980,12 +1015,13 @@
       <c r="W2" s="6"/>
       <c r="X2" s="6"/>
       <c r="Y2" s="6"/>
-    </row>
-    <row r="3" spans="2:32" ht="114" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z2" s="6"/>
+    </row>
+    <row r="3" spans="2:33" ht="114" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="11"/>
+      <c r="C3" s="10"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
@@ -1015,8 +1051,9 @@
       <c r="AD3" s="11"/>
       <c r="AE3" s="11"/>
       <c r="AF3" s="11"/>
-    </row>
-    <row r="4" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG3" s="11"/>
+    </row>
+    <row r="4" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -1041,8 +1078,9 @@
       <c r="W4" s="8"/>
       <c r="X4" s="8"/>
       <c r="Y4" s="8"/>
-    </row>
-    <row r="5" spans="2:32" ht="128" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z4" s="8"/>
+    </row>
+    <row r="5" spans="2:33" ht="128" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
         <v>50</v>
       </c>
@@ -1069,8 +1107,9 @@
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
       <c r="Y5" s="7"/>
-    </row>
-    <row r="6" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="Z5" s="7"/>
+    </row>
+    <row r="6" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -1095,81 +1134,88 @@
       <c r="W6" s="9"/>
       <c r="X6" s="9"/>
       <c r="Y6" s="9"/>
-    </row>
-    <row r="7" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="Z6" s="9"/>
+    </row>
+    <row r="7" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:32" s="3" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:33" s="3" customFormat="1" ht="119" x14ac:dyDescent="0.2">
       <c r="B8" s="5"/>
       <c r="C8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>10</v>
@@ -1178,10 +1224,10 @@
         <v>10</v>
       </c>
       <c r="F9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>10</v>
@@ -1190,7 +1236,7 @@
         <v>10</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>3</v>
@@ -1198,524 +1244,539 @@
       <c r="L9" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="M9" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="L10" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="2:32" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="L11" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="2:32" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="L12" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="2:32" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="L13" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="2:32" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="L14" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="2:32" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="L15" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="2:32" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="L16" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="L17" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="L18" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K19" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="L19" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K20" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="L20" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="C21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="L21" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K22" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="L22" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K23" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="L23" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K24" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="L24" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="I25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K25" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="L25" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="I26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K26" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="L26" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="I27" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K27" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="L27" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="I28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K28" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="L28" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="I29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K29" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="L29" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="I30" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="J30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K30" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="L30" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="J31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K31" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="L31" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="J32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K32" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="L32" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="J33" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K33" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="L33" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="J34" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J34" s="1" t="s">
+      <c r="K34" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K34" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="L34" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J35" s="1" t="s">
+      <c r="K35" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K35" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="L35" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="G36" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="I36" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="J36" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="K36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K36" s="1" t="s">
+      <c r="L36" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L36" s="1" t="s">
+      <c r="M36" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="G37" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K37" s="1" t="s">
+      <c r="L37" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L37" s="1" t="s">
+      <c r="M37" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="G38" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K38" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="L38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M38" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="F39" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="G39" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="H39" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="I39" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="J39" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J39" s="1" t="s">
+      <c r="K39" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K39" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="L39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M39" s="1" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B2:Y2"/>
-    <mergeCell ref="B5:Y5"/>
-    <mergeCell ref="B4:Y4"/>
-    <mergeCell ref="B6:Y6"/>
-    <mergeCell ref="B3:AF3"/>
+    <mergeCell ref="B2:Z2"/>
+    <mergeCell ref="B5:Z5"/>
+    <mergeCell ref="B4:Z4"/>
+    <mergeCell ref="B6:Z6"/>
+    <mergeCell ref="B3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/epp-16-dnssec-data.xlsx
+++ b/data/epp-16-dnssec-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gavin.brown/Code/rst-test-specs/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF68D67-B67E-814A-B1A5-8CCD6D1ACCDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C1EE35-5EC0-CB48-A660-C28DE763BC2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{CD472396-4CFB-9A45-AA99-46F4E9CB8B91}"/>
   </bookViews>
@@ -333,16 +333,11 @@
   <dxfs count="14">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
         <color theme="1"/>
         <name val="Arial"/>
         <family val="2"/>
@@ -368,11 +363,16 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Arial"/>
         <family val="2"/>
@@ -627,17 +627,17 @@
   </autoFilter>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{F151C1C9-FD61-3745-B6D9-436567D9F6F2}" name="action" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{3D82AD55-769F-CD49-A19C-4CEE1C417D0E}" name="secDNSInterface" dataDxfId="0"/>
-    <tableColumn id="20" xr3:uid="{84610D9D-62D8-C747-BEB0-DA340D34D421}" name="keyTag" dataDxfId="10"/>
-    <tableColumn id="19" xr3:uid="{54D27880-56AD-DC42-BE78-EBB1A19D2339}" name="dsDataAlg" dataDxfId="9"/>
-    <tableColumn id="18" xr3:uid="{4C2A616C-31AB-9948-877D-701A0692DECD}" name="digestType" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{2467371F-CDC1-0443-9301-00252404EE8B}" name="digest" dataDxfId="7"/>
-    <tableColumn id="24" xr3:uid="{66E3B520-5E7B-914A-A7E7-5D2A0EC1B025}" name="flags" dataDxfId="6"/>
-    <tableColumn id="23" xr3:uid="{85CBAD45-FEDA-EF41-B68C-A469EEC82B26}" name="protocol" dataDxfId="5"/>
-    <tableColumn id="22" xr3:uid="{7BF4016C-657D-B647-BB2B-87573194BAB3}" name="keyDataAlg" dataDxfId="4"/>
-    <tableColumn id="21" xr3:uid="{D26FFFA2-9A10-9943-A61D-4B69D6D32E34}" name="pubKey" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{00D82E93-146D-6544-AF62-0DE540BD8AA2}" name="passOrFail" dataDxfId="2"/>
-    <tableColumn id="16" xr3:uid="{8BB18A73-00AF-4640-8340-D626F25C4C5F}" name="errorCode" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{3D82AD55-769F-CD49-A19C-4CEE1C417D0E}" name="secDNSInterface" dataDxfId="10"/>
+    <tableColumn id="20" xr3:uid="{84610D9D-62D8-C747-BEB0-DA340D34D421}" name="keyTag" dataDxfId="9"/>
+    <tableColumn id="19" xr3:uid="{54D27880-56AD-DC42-BE78-EBB1A19D2339}" name="dsDataAlg" dataDxfId="8"/>
+    <tableColumn id="18" xr3:uid="{4C2A616C-31AB-9948-877D-701A0692DECD}" name="digestType" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{2467371F-CDC1-0443-9301-00252404EE8B}" name="digest" dataDxfId="6"/>
+    <tableColumn id="24" xr3:uid="{66E3B520-5E7B-914A-A7E7-5D2A0EC1B025}" name="flags" dataDxfId="5"/>
+    <tableColumn id="23" xr3:uid="{85CBAD45-FEDA-EF41-B68C-A469EEC82B26}" name="protocol" dataDxfId="4"/>
+    <tableColumn id="22" xr3:uid="{7BF4016C-657D-B647-BB2B-87573194BAB3}" name="keyDataAlg" dataDxfId="3"/>
+    <tableColumn id="21" xr3:uid="{D26FFFA2-9A10-9943-A61D-4B69D6D32E34}" name="pubKey" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{00D82E93-146D-6544-AF62-0DE540BD8AA2}" name="passOrFail" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{8BB18A73-00AF-4640-8340-D626F25C4C5F}" name="errorCode" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -963,7 +963,7 @@
   <dimension ref="B2:AG39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1425,6 +1425,9 @@
       <c r="B20" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="C20" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="G20" s="1" t="s">
         <v>39</v>
       </c>
@@ -1441,9 +1444,6 @@
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>9</v>
